--- a/simulated_data/10nodes_15len_trial6.xlsx
+++ b/simulated_data/10nodes_15len_trial6.xlsx
@@ -10,20 +10,27 @@
     <sheet name="rss_data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="true_dist" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="est_dist_data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="rss_only_dist" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="rss_post_averaged_dist" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="spring_model_dist" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="spring_model_locs" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="sdp_dist" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="sdp_locs" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="mds_metric_dist" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="mds_metric_locs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="mds_non_metric_dist" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="mds_non_metric_locs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="sdp_init_spring_dist" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="sdp_init_spring_locs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="runtimes" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="estimation_performance" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="spring_model_dist" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="spring_model_locs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="estimation_performance" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="rss_only_dist" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="rss_pre_averaged_dist" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="rss_post_averaged_dist" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="spring_model_5inits_dist" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="spring_model_5inits_locs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="sdp_dist" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="sdp_locs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="mds_metric_dist" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="mds_metric_locs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="mds_non_metric_dist" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="mds_non_metric_locs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="sdp_init_spring_dist" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="sdp_init_spring_locs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="lle_dist" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="lle_locs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="isomap_dist" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="isomap_locs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="runtimes" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,7 +544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,16 +559,64 @@
       <c r="C1" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3356964054196555</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3356964054208815</v>
+        <v>10.21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.495</v>
+      </c>
+      <c r="F2" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.665</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.355</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.609999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -569,10 +624,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.164041889021412</v>
+        <v>10.21</v>
       </c>
       <c r="C3" t="n">
-        <v>3.16404188902259</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.445</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.135</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13.725</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.425000000000001</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8.005000000000001</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8.484999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -580,10 +659,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2379897216151047</v>
+        <v>5.73</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2379897216122774</v>
+        <v>8.445</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.835</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20.055</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.955</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.629999999999999</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6.654999999999999</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12.98</v>
       </c>
     </row>
     <row r="5">
@@ -591,10 +694,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.850642372507203</v>
+        <v>6.495</v>
       </c>
       <c r="C5" t="n">
-        <v>1.850642372508045</v>
+        <v>3.135</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.835</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7.315</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.039999999999999</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.824999999999999</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -602,10 +729,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.473294896101932</v>
+        <v>12.48</v>
       </c>
       <c r="C6" t="n">
-        <v>5.473294896100641</v>
+        <v>6.59</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.055</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7.315</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20.085</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8.15</v>
       </c>
     </row>
     <row r="7">
@@ -613,10 +764,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.595549399160294</v>
+        <v>2.665</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.59554939915789</v>
+        <v>13.725</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.955</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.039999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20.085</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.665</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.535</v>
       </c>
     </row>
     <row r="8">
@@ -624,10 +799,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.4660368319307888</v>
+        <v>1.355</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4660368319297141</v>
+        <v>8.425000000000001</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.985</v>
       </c>
     </row>
     <row r="9">
@@ -635,10 +834,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.5695372398497905</v>
+        <v>5.53</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.5695372398492951</v>
+        <v>6.73</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.629999999999999</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.824999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.975</v>
       </c>
     </row>
     <row r="10">
@@ -646,10 +869,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.02451103455190388</v>
+        <v>0.765</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.02451103455088289</v>
+        <v>8.005000000000001</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6.654999999999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.665</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5.035</v>
       </c>
     </row>
     <row r="11">
@@ -657,10 +904,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>4.609999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>8.484999999999999</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5.535</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.985</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.975</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5.035</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -722,31 +993,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.09</v>
+        <v>9.43</v>
       </c>
       <c r="D2" t="n">
-        <v>6.27</v>
+        <v>7.95</v>
       </c>
       <c r="E2" t="n">
-        <v>6.2</v>
+        <v>5.92</v>
       </c>
       <c r="F2" t="n">
-        <v>12.63</v>
+        <v>12.91</v>
       </c>
       <c r="G2" t="n">
-        <v>3.33</v>
+        <v>3.64</v>
       </c>
       <c r="H2" t="n">
-        <v>1.49</v>
+        <v>1.22</v>
       </c>
       <c r="I2" t="n">
-        <v>4.07</v>
+        <v>3.11</v>
       </c>
       <c r="J2" t="n">
-        <v>1.46</v>
+        <v>0.97</v>
       </c>
       <c r="K2" t="n">
-        <v>5.55</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="3">
@@ -754,34 +1025,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.09</v>
+        <v>9.43</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9.99</v>
+        <v>7.58</v>
       </c>
       <c r="E3" t="n">
-        <v>3.25</v>
+        <v>3.57</v>
       </c>
       <c r="F3" t="n">
-        <v>7.33</v>
+        <v>9.25</v>
       </c>
       <c r="G3" t="n">
-        <v>11.87</v>
+        <v>9.59</v>
       </c>
       <c r="H3" t="n">
-        <v>7.9</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>6.52</v>
+        <v>7.28</v>
       </c>
       <c r="J3" t="n">
-        <v>8.300000000000001</v>
+        <v>8.93</v>
       </c>
       <c r="K3" t="n">
-        <v>9.25</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="4">
@@ -789,34 +1060,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.27</v>
+        <v>7.95</v>
       </c>
       <c r="C4" t="n">
-        <v>9.99</v>
+        <v>7.58</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.92</v>
+        <v>6.72</v>
       </c>
       <c r="F4" t="n">
-        <v>16.19</v>
+        <v>15.92</v>
       </c>
       <c r="G4" t="n">
-        <v>5.57</v>
+        <v>5.17</v>
       </c>
       <c r="H4" t="n">
-        <v>6.98</v>
+        <v>7.61</v>
       </c>
       <c r="I4" t="n">
-        <v>8.970000000000001</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>7.32</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>11.49</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="5">
@@ -824,34 +1095,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.2</v>
+        <v>5.92</v>
       </c>
       <c r="C5" t="n">
-        <v>3.25</v>
+        <v>3.57</v>
       </c>
       <c r="D5" t="n">
-        <v>6.92</v>
+        <v>6.72</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>9.460000000000001</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>8.710000000000001</v>
+        <v>6.74</v>
       </c>
       <c r="H5" t="n">
-        <v>5.26</v>
+        <v>4.74</v>
       </c>
       <c r="I5" t="n">
-        <v>4.84</v>
+        <v>3.77</v>
       </c>
       <c r="J5" t="n">
-        <v>5.72</v>
+        <v>5.37</v>
       </c>
       <c r="K5" t="n">
-        <v>7.97</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="6">
@@ -859,34 +1130,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.63</v>
+        <v>12.91</v>
       </c>
       <c r="C6" t="n">
-        <v>7.33</v>
+        <v>9.25</v>
       </c>
       <c r="D6" t="n">
-        <v>16.19</v>
+        <v>15.92</v>
       </c>
       <c r="E6" t="n">
-        <v>9.460000000000001</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>15.95</v>
+        <v>15.39</v>
       </c>
       <c r="H6" t="n">
-        <v>11.14</v>
+        <v>11.84</v>
       </c>
       <c r="I6" t="n">
-        <v>8.58</v>
+        <v>9.83</v>
       </c>
       <c r="J6" t="n">
-        <v>11.25</v>
+        <v>11.96</v>
       </c>
       <c r="K6" t="n">
-        <v>9.02</v>
+        <v>9.94</v>
       </c>
     </row>
     <row r="7">
@@ -894,34 +1165,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.33</v>
+        <v>3.64</v>
       </c>
       <c r="C7" t="n">
-        <v>11.87</v>
+        <v>9.59</v>
       </c>
       <c r="D7" t="n">
-        <v>5.57</v>
+        <v>5.17</v>
       </c>
       <c r="E7" t="n">
-        <v>8.710000000000001</v>
+        <v>6.74</v>
       </c>
       <c r="F7" t="n">
-        <v>15.95</v>
+        <v>15.39</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>4.81</v>
+        <v>4.03</v>
       </c>
       <c r="I7" t="n">
-        <v>7.4</v>
+        <v>5.86</v>
       </c>
       <c r="J7" t="n">
-        <v>4.76</v>
+        <v>4.4</v>
       </c>
       <c r="K7" t="n">
-        <v>8.5</v>
+        <v>8.039999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -929,34 +1200,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.49</v>
+        <v>1.22</v>
       </c>
       <c r="C8" t="n">
-        <v>7.9</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>6.98</v>
+        <v>7.61</v>
       </c>
       <c r="E8" t="n">
-        <v>5.26</v>
+        <v>4.74</v>
       </c>
       <c r="F8" t="n">
-        <v>11.14</v>
+        <v>11.84</v>
       </c>
       <c r="G8" t="n">
-        <v>4.81</v>
+        <v>4.03</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.59</v>
+        <v>2.01</v>
       </c>
       <c r="J8" t="n">
-        <v>0.49</v>
+        <v>0.75</v>
       </c>
       <c r="K8" t="n">
-        <v>4.52</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="9">
@@ -964,34 +1235,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.07</v>
+        <v>3.11</v>
       </c>
       <c r="C9" t="n">
-        <v>6.52</v>
+        <v>7.28</v>
       </c>
       <c r="D9" t="n">
-        <v>8.970000000000001</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>4.84</v>
+        <v>3.77</v>
       </c>
       <c r="F9" t="n">
-        <v>8.58</v>
+        <v>9.83</v>
       </c>
       <c r="G9" t="n">
-        <v>7.4</v>
+        <v>5.86</v>
       </c>
       <c r="H9" t="n">
-        <v>2.59</v>
+        <v>2.01</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.67</v>
+        <v>2.21</v>
       </c>
       <c r="K9" t="n">
-        <v>3.15</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="10">
@@ -999,34 +1270,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.46</v>
+        <v>0.97</v>
       </c>
       <c r="C10" t="n">
-        <v>8.300000000000001</v>
+        <v>8.93</v>
       </c>
       <c r="D10" t="n">
-        <v>7.32</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>5.72</v>
+        <v>5.37</v>
       </c>
       <c r="F10" t="n">
-        <v>11.25</v>
+        <v>11.96</v>
       </c>
       <c r="G10" t="n">
-        <v>4.76</v>
+        <v>4.4</v>
       </c>
       <c r="H10" t="n">
-        <v>0.49</v>
+        <v>0.75</v>
       </c>
       <c r="I10" t="n">
-        <v>2.67</v>
+        <v>2.21</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.22</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="11">
@@ -1034,31 +1305,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.55</v>
+        <v>4.45</v>
       </c>
       <c r="C11" t="n">
-        <v>9.25</v>
+        <v>10.14</v>
       </c>
       <c r="D11" t="n">
-        <v>11.49</v>
+        <v>11.6</v>
       </c>
       <c r="E11" t="n">
-        <v>7.97</v>
+        <v>6.83</v>
       </c>
       <c r="F11" t="n">
-        <v>9.02</v>
+        <v>9.94</v>
       </c>
       <c r="G11" t="n">
-        <v>8.5</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>4.52</v>
+        <v>4.14</v>
       </c>
       <c r="I11" t="n">
-        <v>3.15</v>
+        <v>3.26</v>
       </c>
       <c r="J11" t="n">
-        <v>4.22</v>
+        <v>3.64</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1096,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.166901453266255</v>
+        <v>10.38528714558258</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.339520034033651</v>
+        <v>7.383685544674981</v>
       </c>
     </row>
     <row r="3">
@@ -1107,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.439884366755521</v>
+        <v>6.645578243612055</v>
       </c>
       <c r="C3" t="n">
-        <v>2.64324636838256</v>
+        <v>-1.274339846367642</v>
       </c>
     </row>
     <row r="4">
@@ -1118,10 +1389,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.229920698657601</v>
+        <v>14.05736832232589</v>
       </c>
       <c r="C4" t="n">
-        <v>-6.81265323241939</v>
+        <v>0.3314348428595733</v>
       </c>
     </row>
     <row r="5">
@@ -1129,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.585937100875174</v>
+        <v>7.59379231945711</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.02386465023624489</v>
+        <v>2.167233327014251</v>
       </c>
     </row>
     <row r="6">
@@ -1140,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.546619283919811</v>
+        <v>-1.675309969706276</v>
       </c>
       <c r="C6" t="n">
-        <v>9.374772975350064</v>
+        <v>2.773031305977986</v>
       </c>
     </row>
     <row r="7">
@@ -1151,10 +1422,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.183899850975625</v>
+        <v>13.474836813278</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.510994105458463</v>
+        <v>5.464112852828773</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.58695245083492</v>
+        <v>9.570939595684646</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.969022848640112</v>
+        <v>6.472712707104121</v>
       </c>
     </row>
     <row r="9">
@@ -1173,10 +1444,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.992662770146284</v>
+        <v>7.631497826344734</v>
       </c>
       <c r="C9" t="n">
-        <v>1.555301148056945</v>
+        <v>5.934007228033891</v>
       </c>
     </row>
     <row r="10">
@@ -1184,10 +1455,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.068266370195512</v>
+        <v>9.43566330700533</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.8837644578509369</v>
+        <v>7.209461112135488</v>
       </c>
     </row>
     <row r="11">
@@ -1195,10 +1466,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-3.80367855478951</v>
+        <v>6.187255718373601</v>
       </c>
       <c r="C11" t="n">
-        <v>2.966498836849233</v>
+        <v>8.852968827348814</v>
       </c>
     </row>
   </sheetData>
@@ -1260,31 +1531,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>8.859999999999999</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>5.02</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>6.51</v>
+        <v>2.14</v>
       </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>7.27</v>
       </c>
       <c r="G2" t="n">
-        <v>3.63</v>
+        <v>2.73</v>
       </c>
       <c r="H2" t="n">
-        <v>3.42</v>
+        <v>1.13</v>
       </c>
       <c r="I2" t="n">
-        <v>4.38</v>
+        <v>1.28</v>
       </c>
       <c r="J2" t="n">
-        <v>2.03</v>
+        <v>0.51</v>
       </c>
       <c r="K2" t="n">
-        <v>6.41</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1292,34 +1563,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8.859999999999999</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9.5</v>
+        <v>4.81</v>
       </c>
       <c r="E3" t="n">
-        <v>2.78</v>
+        <v>1.86</v>
       </c>
       <c r="F3" t="n">
-        <v>5.76</v>
+        <v>3.27</v>
       </c>
       <c r="G3" t="n">
-        <v>12.49</v>
+        <v>6.73</v>
       </c>
       <c r="H3" t="n">
-        <v>5.76</v>
+        <v>5.13</v>
       </c>
       <c r="I3" t="n">
-        <v>7.79</v>
+        <v>5.28</v>
       </c>
       <c r="J3" t="n">
-        <v>6.94</v>
+        <v>4.51</v>
       </c>
       <c r="K3" t="n">
-        <v>10.89</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="4">
@@ -1327,34 +1598,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.02</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>9.5</v>
+        <v>4.81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.83</v>
+        <v>2.95</v>
       </c>
       <c r="F4" t="n">
-        <v>13.77</v>
+        <v>8.08</v>
       </c>
       <c r="G4" t="n">
-        <v>6.62</v>
+        <v>1.92</v>
       </c>
       <c r="H4" t="n">
-        <v>6.73</v>
+        <v>0.32</v>
       </c>
       <c r="I4" t="n">
-        <v>8.970000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="J4" t="n">
-        <v>5.76</v>
+        <v>0.3</v>
       </c>
       <c r="K4" t="n">
-        <v>11.42</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="5">
@@ -1362,34 +1633,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.51</v>
+        <v>2.14</v>
       </c>
       <c r="C5" t="n">
-        <v>2.78</v>
+        <v>1.86</v>
       </c>
       <c r="D5" t="n">
-        <v>6.83</v>
+        <v>2.95</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>7.58</v>
+        <v>5.12</v>
       </c>
       <c r="G5" t="n">
-        <v>10.14</v>
+        <v>4.87</v>
       </c>
       <c r="H5" t="n">
-        <v>4.06</v>
+        <v>3.28</v>
       </c>
       <c r="I5" t="n">
-        <v>6.73</v>
+        <v>3.42</v>
       </c>
       <c r="J5" t="n">
-        <v>4.91</v>
+        <v>2.65</v>
       </c>
       <c r="K5" t="n">
-        <v>10.04</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="6">
@@ -1397,34 +1668,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11</v>
+        <v>7.27</v>
       </c>
       <c r="C6" t="n">
-        <v>5.76</v>
+        <v>3.27</v>
       </c>
       <c r="D6" t="n">
-        <v>13.77</v>
+        <v>8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>7.58</v>
+        <v>5.12</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>14.31</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
-        <v>7.69</v>
+        <v>8.4</v>
       </c>
       <c r="I6" t="n">
-        <v>7.58</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>9.07</v>
+        <v>7.78</v>
       </c>
       <c r="K6" t="n">
-        <v>9.5</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="7">
@@ -1432,34 +1703,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.63</v>
+        <v>2.73</v>
       </c>
       <c r="C7" t="n">
-        <v>12.49</v>
+        <v>6.73</v>
       </c>
       <c r="D7" t="n">
-        <v>6.62</v>
+        <v>1.92</v>
       </c>
       <c r="E7" t="n">
-        <v>10.14</v>
+        <v>4.87</v>
       </c>
       <c r="F7" t="n">
-        <v>14.31</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>6.94</v>
+        <v>1.6</v>
       </c>
       <c r="I7" t="n">
-        <v>6.94</v>
+        <v>1.45</v>
       </c>
       <c r="J7" t="n">
-        <v>5.55</v>
+        <v>2.22</v>
       </c>
       <c r="K7" t="n">
-        <v>7.37</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="8">
@@ -1467,34 +1738,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.42</v>
+        <v>1.13</v>
       </c>
       <c r="C8" t="n">
-        <v>5.76</v>
+        <v>5.13</v>
       </c>
       <c r="D8" t="n">
-        <v>6.73</v>
+        <v>0.32</v>
       </c>
       <c r="E8" t="n">
-        <v>4.06</v>
+        <v>3.28</v>
       </c>
       <c r="F8" t="n">
-        <v>7.69</v>
+        <v>8.4</v>
       </c>
       <c r="G8" t="n">
-        <v>6.94</v>
+        <v>1.6</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.88</v>
+        <v>0.15</v>
       </c>
       <c r="J8" t="n">
-        <v>1.49</v>
+        <v>0.62</v>
       </c>
       <c r="K8" t="n">
-        <v>6.09</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="9">
@@ -1502,34 +1773,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.38</v>
+        <v>1.28</v>
       </c>
       <c r="C9" t="n">
-        <v>7.79</v>
+        <v>5.28</v>
       </c>
       <c r="D9" t="n">
-        <v>8.970000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="E9" t="n">
-        <v>6.73</v>
+        <v>3.42</v>
       </c>
       <c r="F9" t="n">
-        <v>7.58</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>6.94</v>
+        <v>1.45</v>
       </c>
       <c r="H9" t="n">
-        <v>2.88</v>
+        <v>0.15</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>0.77</v>
       </c>
       <c r="K9" t="n">
-        <v>3.31</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="10">
@@ -1537,34 +1808,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.03</v>
+        <v>0.51</v>
       </c>
       <c r="C10" t="n">
-        <v>6.94</v>
+        <v>4.51</v>
       </c>
       <c r="D10" t="n">
-        <v>5.76</v>
+        <v>0.3</v>
       </c>
       <c r="E10" t="n">
-        <v>4.91</v>
+        <v>2.65</v>
       </c>
       <c r="F10" t="n">
-        <v>9.07</v>
+        <v>7.78</v>
       </c>
       <c r="G10" t="n">
-        <v>5.55</v>
+        <v>2.22</v>
       </c>
       <c r="H10" t="n">
-        <v>1.49</v>
+        <v>0.62</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>0.77</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>6.09</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="11">
@@ -1572,31 +1843,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.41</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>10.89</v>
+        <v>3.06</v>
       </c>
       <c r="D11" t="n">
-        <v>11.42</v>
+        <v>1.75</v>
       </c>
       <c r="E11" t="n">
-        <v>10.04</v>
+        <v>1.2</v>
       </c>
       <c r="F11" t="n">
-        <v>9.5</v>
+        <v>6.33</v>
       </c>
       <c r="G11" t="n">
-        <v>7.37</v>
+        <v>3.67</v>
       </c>
       <c r="H11" t="n">
-        <v>6.09</v>
+        <v>2.07</v>
       </c>
       <c r="I11" t="n">
-        <v>3.31</v>
+        <v>2.22</v>
       </c>
       <c r="J11" t="n">
-        <v>6.09</v>
+        <v>1.45</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1634,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2150285486138024</v>
+        <v>0.3356964054196555</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1978677415025205</v>
+        <v>0.3356964054208815</v>
       </c>
     </row>
     <row r="3">
@@ -1645,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1475759904305851</v>
+        <v>3.164041889021412</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5467207926373033</v>
+        <v>3.16404188902259</v>
       </c>
     </row>
     <row r="4">
@@ -1656,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.6059359858213231</v>
+        <v>-0.2379897216151047</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07101624968470012</v>
+        <v>-0.2379897216122774</v>
       </c>
     </row>
     <row r="5">
@@ -1667,10 +1938,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.05722007244057015</v>
+        <v>1.850642372507203</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3935090331608964</v>
+        <v>1.850642372508045</v>
       </c>
     </row>
     <row r="6">
@@ -1678,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6548753591990858</v>
+        <v>5.473294896101932</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3621890319196972</v>
+        <v>5.473294896100641</v>
       </c>
     </row>
     <row r="7">
@@ -1689,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.3705417607633428</v>
+        <v>-1.595549399160294</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5003548345167637</v>
+        <v>-1.59554939915789</v>
       </c>
     </row>
     <row r="8">
@@ -1700,10 +1971,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01997682995654836</v>
+        <v>-0.4660368319307888</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.02178411349370997</v>
+        <v>-0.4660368319297141</v>
       </c>
     </row>
     <row r="9">
@@ -1711,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1945003440683097</v>
+        <v>-0.5695372398497905</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1798946785882499</v>
+        <v>-0.5695372398492951</v>
       </c>
     </row>
     <row r="10">
@@ -1722,10 +1993,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.08595877173742807</v>
+        <v>-0.02451103455190388</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06307780861595622</v>
+        <v>-0.02451103455088289</v>
       </c>
     </row>
     <row r="11">
@@ -1733,10 +2004,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3233689841507707</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4619755193500421</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1798,31 +2069,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>6.08</v>
+        <v>9.09</v>
       </c>
       <c r="D2" t="n">
-        <v>7.2</v>
+        <v>6.27</v>
       </c>
       <c r="E2" t="n">
-        <v>3.4</v>
+        <v>6.2</v>
       </c>
       <c r="F2" t="n">
-        <v>11.44</v>
+        <v>12.63</v>
       </c>
       <c r="G2" t="n">
-        <v>4.52</v>
+        <v>3.33</v>
       </c>
       <c r="H2" t="n">
-        <v>0.82</v>
+        <v>1.49</v>
       </c>
       <c r="I2" t="n">
-        <v>1.36</v>
+        <v>4.07</v>
       </c>
       <c r="J2" t="n">
-        <v>0.28</v>
+        <v>1.46</v>
       </c>
       <c r="K2" t="n">
-        <v>2.03</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="3">
@@ -1830,34 +2101,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.08</v>
+        <v>9.09</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13.28</v>
+        <v>9.99</v>
       </c>
       <c r="E3" t="n">
-        <v>2.68</v>
+        <v>3.25</v>
       </c>
       <c r="F3" t="n">
-        <v>5.36</v>
+        <v>7.33</v>
       </c>
       <c r="G3" t="n">
-        <v>10.6</v>
+        <v>11.87</v>
       </c>
       <c r="H3" t="n">
-        <v>6.91</v>
+        <v>7.9</v>
       </c>
       <c r="I3" t="n">
-        <v>7.44</v>
+        <v>6.52</v>
       </c>
       <c r="J3" t="n">
-        <v>6.36</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>4.05</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="4">
@@ -1865,34 +2136,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.2</v>
+        <v>6.27</v>
       </c>
       <c r="C4" t="n">
-        <v>13.28</v>
+        <v>9.99</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>10.6</v>
+        <v>6.92</v>
       </c>
       <c r="F4" t="n">
-        <v>18.65</v>
+        <v>16.19</v>
       </c>
       <c r="G4" t="n">
-        <v>2.68</v>
+        <v>5.57</v>
       </c>
       <c r="H4" t="n">
-        <v>6.38</v>
+        <v>6.98</v>
       </c>
       <c r="I4" t="n">
-        <v>5.85</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>6.93</v>
+        <v>7.32</v>
       </c>
       <c r="K4" t="n">
-        <v>9.23</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="5">
@@ -1900,34 +2171,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.4</v>
+        <v>6.2</v>
       </c>
       <c r="C5" t="n">
-        <v>2.68</v>
+        <v>3.25</v>
       </c>
       <c r="D5" t="n">
-        <v>10.6</v>
+        <v>6.92</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>8.039999999999999</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>7.92</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>4.22</v>
+        <v>5.26</v>
       </c>
       <c r="I5" t="n">
-        <v>4.75</v>
+        <v>4.84</v>
       </c>
       <c r="J5" t="n">
-        <v>3.68</v>
+        <v>5.72</v>
       </c>
       <c r="K5" t="n">
-        <v>1.37</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="6">
@@ -1935,34 +2206,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.44</v>
+        <v>12.63</v>
       </c>
       <c r="C6" t="n">
-        <v>5.36</v>
+        <v>7.33</v>
       </c>
       <c r="D6" t="n">
-        <v>18.65</v>
+        <v>16.19</v>
       </c>
       <c r="E6" t="n">
-        <v>8.039999999999999</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>15.97</v>
+        <v>15.95</v>
       </c>
       <c r="H6" t="n">
-        <v>12.27</v>
+        <v>11.14</v>
       </c>
       <c r="I6" t="n">
-        <v>12.8</v>
+        <v>8.58</v>
       </c>
       <c r="J6" t="n">
-        <v>11.72</v>
+        <v>11.25</v>
       </c>
       <c r="K6" t="n">
-        <v>9.41</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="7">
@@ -1970,34 +2241,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.52</v>
+        <v>3.33</v>
       </c>
       <c r="C7" t="n">
-        <v>10.6</v>
+        <v>11.87</v>
       </c>
       <c r="D7" t="n">
-        <v>2.68</v>
+        <v>5.57</v>
       </c>
       <c r="E7" t="n">
-        <v>7.92</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>15.97</v>
+        <v>15.95</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>4.81</v>
       </c>
       <c r="I7" t="n">
-        <v>3.17</v>
+        <v>7.4</v>
       </c>
       <c r="J7" t="n">
-        <v>4.25</v>
+        <v>4.76</v>
       </c>
       <c r="K7" t="n">
-        <v>6.55</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="8">
@@ -2005,34 +2276,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.82</v>
+        <v>1.49</v>
       </c>
       <c r="C8" t="n">
-        <v>6.91</v>
+        <v>7.9</v>
       </c>
       <c r="D8" t="n">
-        <v>6.38</v>
+        <v>6.98</v>
       </c>
       <c r="E8" t="n">
-        <v>4.22</v>
+        <v>5.26</v>
       </c>
       <c r="F8" t="n">
-        <v>12.27</v>
+        <v>11.14</v>
       </c>
       <c r="G8" t="n">
-        <v>3.7</v>
+        <v>4.81</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.53</v>
+        <v>2.59</v>
       </c>
       <c r="J8" t="n">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="K8" t="n">
-        <v>2.86</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="9">
@@ -2040,34 +2311,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.36</v>
+        <v>4.07</v>
       </c>
       <c r="C9" t="n">
-        <v>7.44</v>
+        <v>6.52</v>
       </c>
       <c r="D9" t="n">
-        <v>5.85</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>4.75</v>
+        <v>4.84</v>
       </c>
       <c r="F9" t="n">
-        <v>12.8</v>
+        <v>8.58</v>
       </c>
       <c r="G9" t="n">
-        <v>3.17</v>
+        <v>7.4</v>
       </c>
       <c r="H9" t="n">
-        <v>0.53</v>
+        <v>2.59</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.08</v>
+        <v>2.67</v>
       </c>
       <c r="K9" t="n">
-        <v>3.39</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="10">
@@ -2075,34 +2346,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.28</v>
+        <v>1.46</v>
       </c>
       <c r="C10" t="n">
-        <v>6.36</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>6.93</v>
+        <v>7.32</v>
       </c>
       <c r="E10" t="n">
-        <v>3.68</v>
+        <v>5.72</v>
       </c>
       <c r="F10" t="n">
-        <v>11.72</v>
+        <v>11.25</v>
       </c>
       <c r="G10" t="n">
-        <v>4.25</v>
+        <v>4.76</v>
       </c>
       <c r="H10" t="n">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="I10" t="n">
-        <v>1.08</v>
+        <v>2.67</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2.31</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="11">
@@ -2110,31 +2381,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.03</v>
+        <v>5.55</v>
       </c>
       <c r="C11" t="n">
-        <v>4.05</v>
+        <v>9.25</v>
       </c>
       <c r="D11" t="n">
-        <v>9.23</v>
+        <v>11.49</v>
       </c>
       <c r="E11" t="n">
-        <v>1.37</v>
+        <v>7.97</v>
       </c>
       <c r="F11" t="n">
-        <v>9.41</v>
+        <v>9.02</v>
       </c>
       <c r="G11" t="n">
-        <v>6.55</v>
+        <v>8.5</v>
       </c>
       <c r="H11" t="n">
-        <v>2.86</v>
+        <v>4.52</v>
       </c>
       <c r="I11" t="n">
-        <v>3.39</v>
+        <v>3.15</v>
       </c>
       <c r="J11" t="n">
-        <v>2.31</v>
+        <v>4.22</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -2172,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6230974187609362</v>
+        <v>-2.363662097745023</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6230900412092836</v>
+        <v>-2.140541376731329</v>
       </c>
     </row>
     <row r="3">
@@ -2183,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.923302762245768</v>
+        <v>2.704056584041028</v>
       </c>
       <c r="C3" t="n">
-        <v>4.923302866326058</v>
+        <v>5.409914165488782</v>
       </c>
     </row>
     <row r="4">
@@ -2194,10 +2465,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-4.468948667929751</v>
+        <v>-6.787229802098697</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.468948805602768</v>
+        <v>2.306144401594797</v>
       </c>
     </row>
     <row r="5">
@@ -2205,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.026813800265106</v>
+        <v>0.01633202096274191</v>
       </c>
       <c r="C5" t="n">
-        <v>3.026813366020009</v>
+        <v>3.585979319246747</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2487,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8.715263463912521</v>
+        <v>9.402729355650251</v>
       </c>
       <c r="C6" t="n">
-        <v>8.715263551006869</v>
+        <v>2.441376411162851</v>
       </c>
     </row>
     <row r="7">
@@ -2227,10 +2498,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.574303875158113</v>
+        <v>-5.546336573572571</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.574304469550629</v>
+        <v>-3.12192647320396</v>
       </c>
     </row>
     <row r="8">
@@ -2238,10 +2509,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04005852995860747</v>
+        <v>-0.9867502990298611</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04005964384509773</v>
+        <v>-1.575990866014236</v>
       </c>
     </row>
     <row r="9">
@@ -2249,10 +2520,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.3353534398816523</v>
+        <v>1.54407656916217</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3353536410933489</v>
+        <v>-1.010033952363172</v>
       </c>
     </row>
     <row r="10">
@@ -2260,10 +2531,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4278521002635343</v>
+        <v>-0.9068923663275206</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4278647888594029</v>
+        <v>-2.058230218158172</v>
       </c>
     </row>
     <row r="11">
@@ -2271,10 +2542,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.06028826211244</v>
+        <v>2.923676608957482</v>
       </c>
       <c r="C11" t="n">
-        <v>2.060287789227529</v>
+        <v>-3.836691411022308</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,40 +2568,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -2338,25 +2604,349 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001330375671386719</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001261234283447266</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2354674339294434</v>
+        <v>5.74</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9253034591674805</v>
+        <v>8.18</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06768250465393066</v>
+        <v>11.26</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07906579971313477</v>
+        <v>3.51</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8495528697967529</v>
+        <v>4.04</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15.41</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.41</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,262 +2969,522 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>estimation_technique</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>max_error</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>max_percent_error</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>avg_error</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>avg_percent_error</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>true_pos_rate</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>false_pos_rate</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
+      <c r="B2" t="n">
+        <v>-0.05009581535089872</v>
       </c>
       <c r="C2" t="n">
-        <v>13.85</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.017543859649123</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.967333333333333</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.2859273428876073</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0001330375671386719</v>
+        <v>-0.3308888272159048</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0.3172659569161045</v>
       </c>
       <c r="C3" t="n">
-        <v>6.285</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6169590643274855</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.178888888888889</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1783117834949651</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0001261234283447266</v>
+        <v>0.4066630169625657</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0.4783309176325503</v>
       </c>
       <c r="C4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7123287671232877</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.025777777777778</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1815162606613298</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.02439024390243903</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.2354674339294434</v>
+        <v>-0.4427875643423442</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0.07642147859306941</v>
       </c>
       <c r="C5" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9578651685393259</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.260888888888888</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.5055689572468012</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.3414634146341464</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.9253034591674805</v>
+        <v>0.424922776900735</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
+      <c r="B6" t="n">
+        <v>-0.5158680539206608</v>
       </c>
       <c r="C6" t="n">
-        <v>2.369999999999999</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.4302325581395349</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.7115555555555558</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1225963528846305</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.06768250465393066</v>
+        <v>0.6164569725659512</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
+      <c r="B7" t="n">
+        <v>-0.378482282274305</v>
       </c>
       <c r="C7" t="n">
-        <v>3.510000000000001</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.235294117647059</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.123777777777778</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2350352576680944</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.07906579971313477</v>
+        <v>-0.3788228234645412</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B8" t="n">
+        <v>0.2860022289819841</v>
       </c>
       <c r="C8" t="n">
-        <v>7.02</v>
+        <v>-0.1622984941281784</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0717521559421678</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1141609319391924</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.01406178286205337</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.3729871307620221</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.3154374928955538</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1277772238807864</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="H6" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.91</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8367103694874851</v>
+        <v>6.38</v>
       </c>
       <c r="E8" t="n">
-        <v>1.824</v>
+        <v>4.22</v>
       </c>
       <c r="F8" t="n">
-        <v>0.312555734796141</v>
+        <v>12.27</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07317073170731707</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8495528697967529</v>
+        <v>0.53</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3040,6 +3890,1325 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6230974187609362</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6230900412092836</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4.923302762245768</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.923302866326058</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-4.468948667929751</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-4.468948805602768</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.026813800265106</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.026813366020009</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8.715263463912521</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.715263551006869</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-2.574303875158113</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2.574304469550629</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.04005852995860747</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.04005964384509773</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.3353534398816523</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.3353536410933489</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4278521002635343</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4278647888594029</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.06028826211244</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.060287789227529</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="F7" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.3287649059836013</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.08913912456823342</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4810474708664767</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1216649354160028</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.06329407675014839</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.673047159779258</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2124737252240381</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.09850570110692007</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6023836972720248</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.1112484408308977</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.3696182100793544</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4291598520071195</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.2421554478524687</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.3039308195624485</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.02124747781664601</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.2742207727078289</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.2251571860640069</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.3076297910045876</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.04566758881839793</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.236208699636469</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="F2" t="n">
+        <v>14.24</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14.24</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9.890000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="F8" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-8.054769199493499</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3.307753840124478</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10.37586195949835</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.649523170792013</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-7.335617873905581</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12.75288397919794</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.826611424326365</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.545879579622646</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>21.59214590208305</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.2094420024248071</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-10.96781675049455</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.646708012504206</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-5.508582336484844</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-5.511198492044983</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.2287761653809144</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-4.588056327066737</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-4.627182479676351</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-5.258628436059052</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.928125519527977</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-6.71991564439674</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>rss_pre_averaged</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>spring_model_5inits</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>lle</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>isomap</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0002646446228027344</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0002558231353759766</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0002648830413818359</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.716598510742188</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.444433927536011</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.27974534034729</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.2253627777099609</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.4025909900665283</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01462984085083008</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.01072955131530762</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5344,31 +7513,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>8.19</v>
+        <v>8.75</v>
       </c>
       <c r="D2" t="n">
-        <v>6.65</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>10.22</v>
+        <v>5.5</v>
       </c>
       <c r="F2" t="n">
-        <v>8.56</v>
+        <v>10.96</v>
       </c>
       <c r="G2" t="n">
-        <v>3.08</v>
+        <v>3.94</v>
       </c>
       <c r="H2" t="n">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="I2" t="n">
-        <v>6.9</v>
+        <v>2.59</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6</v>
+        <v>1.09</v>
       </c>
       <c r="K2" t="n">
-        <v>5.22</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="3">
@@ -5376,34 +7545,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.23</v>
+        <v>8.75</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.42</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>3.33</v>
+        <v>3.52</v>
       </c>
       <c r="F3" t="n">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>9.449999999999999</v>
+        <v>10.65</v>
       </c>
       <c r="H3" t="n">
-        <v>9.890000000000001</v>
+        <v>7.66</v>
       </c>
       <c r="I3" t="n">
-        <v>7.27</v>
+        <v>6.27</v>
       </c>
       <c r="J3" t="n">
-        <v>9.050000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="K3" t="n">
-        <v>9.15</v>
+        <v>10.24</v>
       </c>
     </row>
     <row r="4">
@@ -5411,34 +7580,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.81</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>11.47</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.96</v>
+        <v>7.02</v>
       </c>
       <c r="F4" t="n">
-        <v>24.58</v>
+        <v>17.29</v>
       </c>
       <c r="G4" t="n">
-        <v>6.21</v>
+        <v>5.6</v>
       </c>
       <c r="H4" t="n">
-        <v>8.09</v>
+        <v>7.73</v>
       </c>
       <c r="I4" t="n">
-        <v>10.76</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>6.96</v>
+        <v>8.49</v>
       </c>
       <c r="K4" t="n">
-        <v>11.58</v>
+        <v>11.43</v>
       </c>
     </row>
     <row r="5">
@@ -5446,34 +7615,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.77</v>
+        <v>5.5</v>
       </c>
       <c r="C5" t="n">
-        <v>2.94</v>
+        <v>3.52</v>
       </c>
       <c r="D5" t="n">
-        <v>4.71</v>
+        <v>7.02</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5.82</v>
+        <v>10.54</v>
       </c>
       <c r="G5" t="n">
-        <v>5.96</v>
+        <v>7.14</v>
       </c>
       <c r="H5" t="n">
-        <v>5.79</v>
+        <v>4.41</v>
       </c>
       <c r="I5" t="n">
-        <v>4.27</v>
+        <v>3.34</v>
       </c>
       <c r="J5" t="n">
-        <v>8.92</v>
+        <v>4.84</v>
       </c>
       <c r="K5" t="n">
-        <v>8.08</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="6">
@@ -5481,34 +7650,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16.4</v>
+        <v>10.96</v>
       </c>
       <c r="C6" t="n">
-        <v>6.38</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>15.53</v>
+        <v>17.29</v>
       </c>
       <c r="E6" t="n">
-        <v>8.81</v>
+        <v>10.54</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>27.65</v>
+        <v>14.84</v>
       </c>
       <c r="H6" t="n">
-        <v>11.67</v>
+        <v>10.53</v>
       </c>
       <c r="I6" t="n">
-        <v>15.94</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>9.800000000000001</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>6.65</v>
+        <v>9.07</v>
       </c>
     </row>
     <row r="7">
@@ -5516,34 +7685,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.25</v>
+        <v>3.94</v>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>10.65</v>
       </c>
       <c r="D7" t="n">
-        <v>3.7</v>
+        <v>5.6</v>
       </c>
       <c r="E7" t="n">
-        <v>8.119999999999999</v>
+        <v>7.14</v>
       </c>
       <c r="F7" t="n">
-        <v>12.52</v>
+        <v>14.84</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>4.01</v>
+        <v>4.34</v>
       </c>
       <c r="I7" t="n">
-        <v>11.72</v>
+        <v>5.74</v>
       </c>
       <c r="J7" t="n">
-        <v>5.55</v>
+        <v>4.88</v>
       </c>
       <c r="K7" t="n">
-        <v>6.35</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="8">
@@ -5551,34 +7720,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="C8" t="n">
-        <v>6.96</v>
+        <v>7.66</v>
       </c>
       <c r="D8" t="n">
-        <v>6.71</v>
+        <v>7.73</v>
       </c>
       <c r="E8" t="n">
-        <v>6.39</v>
+        <v>4.41</v>
       </c>
       <c r="F8" t="n">
-        <v>7.97</v>
+        <v>10.53</v>
       </c>
       <c r="G8" t="n">
-        <v>3.35</v>
+        <v>4.34</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.98</v>
+        <v>1.58</v>
       </c>
       <c r="J8" t="n">
-        <v>0.53</v>
+        <v>0.77</v>
       </c>
       <c r="K8" t="n">
-        <v>6.49</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="9">
@@ -5586,34 +7755,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.16</v>
+        <v>2.59</v>
       </c>
       <c r="C9" t="n">
-        <v>6.19</v>
+        <v>6.27</v>
       </c>
       <c r="D9" t="n">
-        <v>6.5</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>5.38</v>
+        <v>3.34</v>
       </c>
       <c r="F9" t="n">
-        <v>6.78</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>6.92</v>
+        <v>5.74</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.98</v>
+        <v>1.64</v>
       </c>
       <c r="K9" t="n">
-        <v>2.77</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="10">
@@ -5621,34 +7790,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.93</v>
+        <v>1.09</v>
       </c>
       <c r="C10" t="n">
-        <v>6.96</v>
+        <v>7.9</v>
       </c>
       <c r="D10" t="n">
-        <v>6.35</v>
+        <v>8.49</v>
       </c>
       <c r="E10" t="n">
-        <v>5.78</v>
+        <v>4.84</v>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>5.78</v>
+        <v>4.88</v>
       </c>
       <c r="H10" t="n">
-        <v>1.13</v>
+        <v>0.77</v>
       </c>
       <c r="I10" t="n">
-        <v>3.6</v>
+        <v>1.64</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.62</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="11">
@@ -5656,31 +7825,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>3.31</v>
       </c>
       <c r="C11" t="n">
-        <v>7.82</v>
+        <v>10.24</v>
       </c>
       <c r="D11" t="n">
-        <v>14.38</v>
+        <v>11.43</v>
       </c>
       <c r="E11" t="n">
-        <v>8.699999999999999</v>
+        <v>7.66</v>
       </c>
       <c r="F11" t="n">
-        <v>9.65</v>
+        <v>9.07</v>
       </c>
       <c r="G11" t="n">
-        <v>4.72</v>
+        <v>6.91</v>
       </c>
       <c r="H11" t="n">
-        <v>5.48</v>
+        <v>3.85</v>
       </c>
       <c r="I11" t="n">
-        <v>3.18</v>
+        <v>4.33</v>
       </c>
       <c r="J11" t="n">
-        <v>5.45</v>
+        <v>3.12</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -5692,6 +7861,421 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.900985250932324</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.093790151564004</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.489991460300493</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9.152646234771462</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10.80142099176575</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.677140371030507</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.787008328722358</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.481231514003745</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-5.97316834186925</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.496819745014083</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8.830742685047056</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.430357008360441</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4.549043721293399</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.134547328893787</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.361356613559286</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.172531947456219</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.958323030073657</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.644905976459242</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.376352049063795</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.044960121070757</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>estimation_technique</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>max_error</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>max_percent_error</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>avg_error</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>avg_percent_error</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>true_pos_rate</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>false_pos_rate</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.017543859649123</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.967333333333333</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2859273428876073</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0001330375671386719</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6.285</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6169590643274855</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.178888888888889</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1783117834949651</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0001261234283447266</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>spring_model</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7123287671232877</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.025777777777778</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1815162606613298</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.02439024390243903</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2354674339294434</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9578651685393259</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.260888888888888</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5055689572468012</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3414634146341464</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9253034591674805</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2.369999999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4302325581395349</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7115555555555558</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1225963528846305</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.06768250465393066</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3.510000000000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.235294117647059</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.123777777777778</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2350352576680944</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.07906579971313477</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8367103694874851</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.824</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.312555734796141</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.07317073170731707</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.8495528697967529</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5745,31 +8329,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>10.21</v>
+        <v>8.19</v>
       </c>
       <c r="D2" t="n">
-        <v>5.73</v>
+        <v>6.65</v>
       </c>
       <c r="E2" t="n">
-        <v>6.495</v>
+        <v>10.22</v>
       </c>
       <c r="F2" t="n">
-        <v>12.48</v>
+        <v>8.56</v>
       </c>
       <c r="G2" t="n">
-        <v>2.665</v>
+        <v>3.08</v>
       </c>
       <c r="H2" t="n">
-        <v>1.355</v>
+        <v>1.55</v>
       </c>
       <c r="I2" t="n">
-        <v>5.53</v>
+        <v>6.9</v>
       </c>
       <c r="J2" t="n">
-        <v>0.765</v>
+        <v>0.6</v>
       </c>
       <c r="K2" t="n">
-        <v>4.609999999999999</v>
+        <v>5.22</v>
       </c>
     </row>
     <row r="3">
@@ -5777,34 +8361,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10.21</v>
+        <v>12.23</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8.445</v>
+        <v>5.42</v>
       </c>
       <c r="E3" t="n">
-        <v>3.135</v>
+        <v>3.33</v>
       </c>
       <c r="F3" t="n">
-        <v>6.59</v>
+        <v>6.8</v>
       </c>
       <c r="G3" t="n">
-        <v>13.725</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>8.425000000000001</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>6.73</v>
+        <v>7.27</v>
       </c>
       <c r="J3" t="n">
-        <v>8.005000000000001</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>8.484999999999999</v>
+        <v>9.15</v>
       </c>
     </row>
     <row r="4">
@@ -5812,34 +8396,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.73</v>
+        <v>4.81</v>
       </c>
       <c r="C4" t="n">
-        <v>8.445</v>
+        <v>11.47</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>5.835</v>
+        <v>6.96</v>
       </c>
       <c r="F4" t="n">
-        <v>20.055</v>
+        <v>24.58</v>
       </c>
       <c r="G4" t="n">
-        <v>4.955</v>
+        <v>6.21</v>
       </c>
       <c r="H4" t="n">
-        <v>7.4</v>
+        <v>8.09</v>
       </c>
       <c r="I4" t="n">
-        <v>8.629999999999999</v>
+        <v>10.76</v>
       </c>
       <c r="J4" t="n">
-        <v>6.654999999999999</v>
+        <v>6.96</v>
       </c>
       <c r="K4" t="n">
-        <v>12.98</v>
+        <v>11.58</v>
       </c>
     </row>
     <row r="5">
@@ -5847,34 +8431,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.495</v>
+        <v>2.77</v>
       </c>
       <c r="C5" t="n">
-        <v>3.135</v>
+        <v>2.94</v>
       </c>
       <c r="D5" t="n">
-        <v>5.835</v>
+        <v>4.71</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>7.315</v>
+        <v>5.82</v>
       </c>
       <c r="G5" t="n">
-        <v>7.039999999999999</v>
+        <v>5.96</v>
       </c>
       <c r="H5" t="n">
-        <v>6.09</v>
+        <v>5.79</v>
       </c>
       <c r="I5" t="n">
-        <v>4.824999999999999</v>
+        <v>4.27</v>
       </c>
       <c r="J5" t="n">
-        <v>7.35</v>
+        <v>8.92</v>
       </c>
       <c r="K5" t="n">
-        <v>8.390000000000001</v>
+        <v>8.08</v>
       </c>
     </row>
     <row r="6">
@@ -5882,34 +8466,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.48</v>
+        <v>16.4</v>
       </c>
       <c r="C6" t="n">
-        <v>6.59</v>
+        <v>6.38</v>
       </c>
       <c r="D6" t="n">
-        <v>20.055</v>
+        <v>15.53</v>
       </c>
       <c r="E6" t="n">
-        <v>7.315</v>
+        <v>8.81</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>20.085</v>
+        <v>27.65</v>
       </c>
       <c r="H6" t="n">
-        <v>9.82</v>
+        <v>11.67</v>
       </c>
       <c r="I6" t="n">
-        <v>11.36</v>
+        <v>15.94</v>
       </c>
       <c r="J6" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>8.15</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="7">
@@ -5917,34 +8501,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.665</v>
+        <v>2.25</v>
       </c>
       <c r="C7" t="n">
-        <v>13.725</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>4.955</v>
+        <v>3.7</v>
       </c>
       <c r="E7" t="n">
-        <v>7.039999999999999</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>20.085</v>
+        <v>12.52</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3.68</v>
+        <v>4.01</v>
       </c>
       <c r="I7" t="n">
-        <v>9.32</v>
+        <v>11.72</v>
       </c>
       <c r="J7" t="n">
-        <v>5.665</v>
+        <v>5.55</v>
       </c>
       <c r="K7" t="n">
-        <v>5.535</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="8">
@@ -5952,34 +8536,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.355</v>
+        <v>1.16</v>
       </c>
       <c r="C8" t="n">
-        <v>8.425000000000001</v>
+        <v>6.96</v>
       </c>
       <c r="D8" t="n">
-        <v>7.4</v>
+        <v>6.71</v>
       </c>
       <c r="E8" t="n">
-        <v>6.09</v>
+        <v>6.39</v>
       </c>
       <c r="F8" t="n">
-        <v>9.82</v>
+        <v>7.97</v>
       </c>
       <c r="G8" t="n">
-        <v>3.68</v>
+        <v>3.35</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.49</v>
+        <v>1.98</v>
       </c>
       <c r="J8" t="n">
-        <v>0.83</v>
+        <v>0.53</v>
       </c>
       <c r="K8" t="n">
-        <v>5.985</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="9">
@@ -5987,34 +8571,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.53</v>
+        <v>4.16</v>
       </c>
       <c r="C9" t="n">
-        <v>6.73</v>
+        <v>6.19</v>
       </c>
       <c r="D9" t="n">
-        <v>8.629999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="E9" t="n">
-        <v>4.824999999999999</v>
+        <v>5.38</v>
       </c>
       <c r="F9" t="n">
-        <v>11.36</v>
+        <v>6.78</v>
       </c>
       <c r="G9" t="n">
-        <v>9.32</v>
+        <v>6.92</v>
       </c>
       <c r="H9" t="n">
-        <v>1.49</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.29</v>
+        <v>2.98</v>
       </c>
       <c r="K9" t="n">
-        <v>2.975</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="10">
@@ -6022,34 +8606,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.765</v>
+        <v>0.93</v>
       </c>
       <c r="C10" t="n">
-        <v>8.005000000000001</v>
+        <v>6.96</v>
       </c>
       <c r="D10" t="n">
-        <v>6.654999999999999</v>
+        <v>6.35</v>
       </c>
       <c r="E10" t="n">
-        <v>7.35</v>
+        <v>5.78</v>
       </c>
       <c r="F10" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="G10" t="n">
-        <v>5.665</v>
+        <v>5.78</v>
       </c>
       <c r="H10" t="n">
-        <v>0.83</v>
+        <v>1.13</v>
       </c>
       <c r="I10" t="n">
-        <v>3.29</v>
+        <v>3.6</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>5.035</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="11">
@@ -6057,572 +8641,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.609999999999999</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>8.484999999999999</v>
+        <v>7.82</v>
       </c>
       <c r="D11" t="n">
-        <v>12.98</v>
+        <v>14.38</v>
       </c>
       <c r="E11" t="n">
-        <v>8.390000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>8.15</v>
+        <v>9.65</v>
       </c>
       <c r="G11" t="n">
-        <v>5.535</v>
+        <v>4.72</v>
       </c>
       <c r="H11" t="n">
-        <v>5.985</v>
+        <v>5.48</v>
       </c>
       <c r="I11" t="n">
-        <v>2.975</v>
+        <v>3.18</v>
       </c>
       <c r="J11" t="n">
-        <v>5.035</v>
+        <v>5.45</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.31</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="H3" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="J3" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="K3" t="n">
-        <v>10.24</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="C4" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="F4" t="n">
-        <v>17.29</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11.43</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10.54</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="K5" t="n">
-        <v>7.66</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>17.29</v>
-      </c>
-      <c r="E6" t="n">
-        <v>10.54</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>14.84</v>
-      </c>
-      <c r="H6" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="J6" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="K6" t="n">
-        <v>9.07</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="C7" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="F7" t="n">
-        <v>14.84</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6.91</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="C9" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="D9" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F9" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="G9" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.33</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="C10" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="D10" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="F10" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="G10" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="C11" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="D11" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="F11" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="G11" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4.900985250932324</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.093790151564004</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.489991460300493</v>
-      </c>
-      <c r="C3" t="n">
-        <v>9.152646234771462</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>10.80142099176575</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6.677140371030507</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3.787008328722358</v>
-      </c>
-      <c r="C5" t="n">
-        <v>6.481231514003745</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-5.97316834186925</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.496819745014083</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>8.830742685047056</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.430357008360441</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4.549043721293399</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.134547328893787</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3.361356613559286</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.172531947456219</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3.958323030073657</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.644905976459242</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2.376352049063795</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-1.044960121070757</v>
       </c>
     </row>
   </sheetData>
@@ -6684,31 +8730,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>10.01</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8100000000000001</v>
+        <v>5.66</v>
       </c>
       <c r="E2" t="n">
-        <v>2.14</v>
+        <v>5.32</v>
       </c>
       <c r="F2" t="n">
-        <v>7.27</v>
+        <v>11.85</v>
       </c>
       <c r="G2" t="n">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="H2" t="n">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="I2" t="n">
-        <v>1.28</v>
+        <v>5.36</v>
       </c>
       <c r="J2" t="n">
-        <v>0.51</v>
+        <v>0.74</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9399999999999999</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="3">
@@ -6716,34 +8762,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>10.01</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.81</v>
+        <v>7.89</v>
       </c>
       <c r="E3" t="n">
-        <v>1.86</v>
+        <v>3.13</v>
       </c>
       <c r="F3" t="n">
-        <v>3.27</v>
+        <v>6.58</v>
       </c>
       <c r="G3" t="n">
-        <v>6.73</v>
+        <v>13.04</v>
       </c>
       <c r="H3" t="n">
-        <v>5.13</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>5.28</v>
+        <v>6.7</v>
       </c>
       <c r="J3" t="n">
-        <v>4.51</v>
+        <v>7.94</v>
       </c>
       <c r="K3" t="n">
-        <v>3.06</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -6751,34 +8797,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8100000000000001</v>
+        <v>5.66</v>
       </c>
       <c r="C4" t="n">
-        <v>4.81</v>
+        <v>7.89</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.95</v>
+        <v>5.73</v>
       </c>
       <c r="F4" t="n">
-        <v>8.08</v>
+        <v>19.54</v>
       </c>
       <c r="G4" t="n">
-        <v>1.92</v>
+        <v>4.79</v>
       </c>
       <c r="H4" t="n">
-        <v>0.32</v>
+        <v>7.37</v>
       </c>
       <c r="I4" t="n">
-        <v>0.47</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3</v>
+        <v>6.65</v>
       </c>
       <c r="K4" t="n">
-        <v>1.75</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="5">
@@ -6786,34 +8832,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.14</v>
+        <v>5.32</v>
       </c>
       <c r="C5" t="n">
-        <v>1.86</v>
+        <v>3.13</v>
       </c>
       <c r="D5" t="n">
-        <v>2.95</v>
+        <v>5.73</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5.12</v>
+        <v>7.16</v>
       </c>
       <c r="G5" t="n">
-        <v>4.87</v>
+        <v>6.96</v>
       </c>
       <c r="H5" t="n">
-        <v>3.28</v>
+        <v>6.08</v>
       </c>
       <c r="I5" t="n">
-        <v>3.42</v>
+        <v>4.8</v>
       </c>
       <c r="J5" t="n">
-        <v>2.65</v>
+        <v>7.18</v>
       </c>
       <c r="K5" t="n">
-        <v>1.2</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -6821,34 +8867,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.27</v>
+        <v>11.85</v>
       </c>
       <c r="C6" t="n">
-        <v>3.27</v>
+        <v>6.58</v>
       </c>
       <c r="D6" t="n">
-        <v>8.08</v>
+        <v>19.54</v>
       </c>
       <c r="E6" t="n">
-        <v>5.12</v>
+        <v>7.16</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>18.61</v>
       </c>
       <c r="H6" t="n">
-        <v>8.4</v>
+        <v>9.65</v>
       </c>
       <c r="I6" t="n">
-        <v>8.550000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="J6" t="n">
-        <v>7.78</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>6.33</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="7">
@@ -6856,34 +8902,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="C7" t="n">
-        <v>6.73</v>
+        <v>13.04</v>
       </c>
       <c r="D7" t="n">
-        <v>1.92</v>
+        <v>4.79</v>
       </c>
       <c r="E7" t="n">
-        <v>4.87</v>
+        <v>6.96</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>18.61</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.6</v>
+        <v>3.67</v>
       </c>
       <c r="I7" t="n">
-        <v>1.45</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
-        <v>2.22</v>
+        <v>5.66</v>
       </c>
       <c r="K7" t="n">
-        <v>3.67</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="8">
@@ -6891,34 +8937,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="C8" t="n">
-        <v>5.13</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.32</v>
+        <v>7.37</v>
       </c>
       <c r="E8" t="n">
-        <v>3.28</v>
+        <v>6.08</v>
       </c>
       <c r="F8" t="n">
-        <v>8.4</v>
+        <v>9.65</v>
       </c>
       <c r="G8" t="n">
-        <v>1.6</v>
+        <v>3.67</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.15</v>
+        <v>1.41</v>
       </c>
       <c r="J8" t="n">
-        <v>0.62</v>
+        <v>0.77</v>
       </c>
       <c r="K8" t="n">
-        <v>2.07</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="9">
@@ -6926,34 +8972,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.28</v>
+        <v>5.36</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>6.7</v>
       </c>
       <c r="D9" t="n">
-        <v>0.47</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>3.42</v>
+        <v>4.8</v>
       </c>
       <c r="F9" t="n">
-        <v>8.550000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="G9" t="n">
-        <v>1.45</v>
+        <v>9</v>
       </c>
       <c r="H9" t="n">
-        <v>0.15</v>
+        <v>1.41</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.77</v>
+        <v>3.28</v>
       </c>
       <c r="K9" t="n">
-        <v>2.22</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="10">
@@ -6961,34 +9007,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.51</v>
+        <v>0.74</v>
       </c>
       <c r="C10" t="n">
-        <v>4.51</v>
+        <v>7.94</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3</v>
+        <v>6.65</v>
       </c>
       <c r="E10" t="n">
-        <v>2.65</v>
+        <v>7.18</v>
       </c>
       <c r="F10" t="n">
-        <v>7.78</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>2.22</v>
+        <v>5.66</v>
       </c>
       <c r="H10" t="n">
-        <v>0.62</v>
+        <v>0.77</v>
       </c>
       <c r="I10" t="n">
-        <v>0.77</v>
+        <v>3.28</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1.45</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="11">
@@ -6996,31 +9042,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9399999999999999</v>
+        <v>4.57</v>
       </c>
       <c r="C11" t="n">
-        <v>3.06</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>1.75</v>
+        <v>12.9</v>
       </c>
       <c r="E11" t="n">
-        <v>1.2</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>6.33</v>
+        <v>8.01</v>
       </c>
       <c r="G11" t="n">
-        <v>3.67</v>
+        <v>5.47</v>
       </c>
       <c r="H11" t="n">
-        <v>2.07</v>
+        <v>5.97</v>
       </c>
       <c r="I11" t="n">
-        <v>2.22</v>
+        <v>2.97</v>
       </c>
       <c r="J11" t="n">
-        <v>1.45</v>
+        <v>5.02</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
